--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1125052.701565457</v>
+        <v>-1104652.805580993</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17488934.14183816</v>
+        <v>16811344.37236569</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10115945.99361365</v>
+        <v>10136811.08151866</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>397.1291057264639</v>
       </c>
       <c r="D2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -674,7 +674,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>305.48747876793</v>
+        <v>20.20454538389961</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -835,7 +835,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>15.90503911058696</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>130.1842892319994</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>183.6861762751169</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>368.2971970172714</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -962,7 +962,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1066,13 +1066,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1108,19 +1108,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>266.1521520092466</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>46.68632917296586</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>410.8304691914117</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1184,7 +1184,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>133.2664810274453</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1303,10 +1303,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>161.7153088076657</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1351,10 +1351,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>144.6759889782163</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,19 +1370,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1430,7 +1430,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>257.8515412775602</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1537,16 +1537,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>60.78001549303641</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>241.2005985405649</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1667,7 +1667,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430777</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1765,13 +1765,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>162.0469045419236</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.48898701015861</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,10 +2065,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>102.2146311366277</v>
       </c>
     </row>
     <row r="20">
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>172.6623007436909</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2953,7 +2953,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>43.77283765622057</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225706</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>417.5253377496635</v>
@@ -3035,13 +3035,13 @@
         <v>415.3149766385525</v>
       </c>
       <c r="E32" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1481427242214</v>
+        <v>384.0145776825635</v>
       </c>
       <c r="H32" t="n">
         <v>270.0031426724685</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T32" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
         <v>342.7550702267644</v>
       </c>
       <c r="W32" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>387.9675521245957</v>
@@ -3187,7 +3187,7 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C34" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
         <v>147.9835025317452</v>
@@ -3202,10 +3202,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277812</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934483</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3253,7 +3253,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="35">
@@ -3442,7 +3442,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432385</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3679,7 +3679,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432386</v>
+        <v>71.53763939432346</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>387.9675521245954</v>
       </c>
     </row>
     <row r="42">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934451</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1350.433942830369</v>
+        <v>1578.02086518306</v>
       </c>
       <c r="C2" t="n">
-        <v>1316.331874054196</v>
+        <v>1176.880354348248</v>
       </c>
       <c r="D2" t="n">
-        <v>887.7501997914644</v>
+        <v>748.2986800855164</v>
       </c>
       <c r="E2" t="n">
-        <v>459.1685255287327</v>
+        <v>748.2986800855164</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4334,16 +4334,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="O2" t="n">
-        <v>1294.102365436318</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P2" t="n">
         <v>1528.02936532736</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1598.429496883969</v>
       </c>
       <c r="Y2" t="n">
-        <v>1372.693109274873</v>
+        <v>1578.02086518306</v>
       </c>
     </row>
     <row r="3">
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>774.5621248982375</v>
+        <v>691.1388105044462</v>
       </c>
       <c r="C4" t="n">
-        <v>774.5621248982375</v>
+        <v>691.1388105044462</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>525.2608177059689</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>355.5028139567061</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>355.5028139567061</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>189.9115389825338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>50.0093646729083</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1544.266326733265</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1298.38688031172</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U4" t="n">
-        <v>1019.953879564825</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V4" t="n">
-        <v>1019.953879564825</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W4" t="n">
-        <v>1019.953879564825</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="X4" t="n">
-        <v>774.5621248982375</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="Y4" t="n">
-        <v>774.5621248982375</v>
+        <v>882.9574292234333</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1292.14448398095</v>
+        <v>1382.763012880891</v>
       </c>
       <c r="C5" t="n">
-        <v>863.562809718218</v>
+        <v>944.6205400643141</v>
       </c>
       <c r="D5" t="n">
-        <v>491.5454389937014</v>
+        <v>508.7107552387587</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>74.93601039705382</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666561</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666561</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666561</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666561</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>486.3636722995835</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1118.837359777071</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1207.322704144142</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1207.322704144142</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1207.322704144142</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1207.322704144142</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1839.796391621629</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2386.295177580223</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.44924233328</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2471.797368517117</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2251.730141390156</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1992.507838707173</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1992.507838707173</v>
       </c>
       <c r="W5" t="n">
-        <v>1333.751429465681</v>
+        <v>1991.69278815861</v>
       </c>
       <c r="X5" t="n">
-        <v>1318.649370085396</v>
+        <v>1976.590728778325</v>
       </c>
       <c r="Y5" t="n">
-        <v>1314.403650425453</v>
+        <v>1568.304605077979</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>557.2807298379583</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.8242686746007</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.7339798211539</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.6135651481076</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>178.2297267642692</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.84463703045313</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666561</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>77.1726580071232</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.7309829733355</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.7309829733355</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.7309829733355</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.7309829733355</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.7309829733355</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>423.9633421215723</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1597.175968231135</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1714.348746325474</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.893308773857</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.714665104459</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1344.378118104427</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1145.260600166427</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.9378458996207</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>805.0704101385007</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.5846309177215</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>552.97043790589</v>
+        <v>1130.167145458547</v>
       </c>
       <c r="C7" t="n">
-        <v>380.4087263891149</v>
+        <v>957.6054339417718</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4087263891149</v>
+        <v>791.7274411432945</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>621.9694373940318</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>445.2623833557881</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>279.6711083816157</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.7689340719903</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666561</v>
       </c>
       <c r="J7" t="n">
-        <v>68.8461756808652</v>
+        <v>51.10898484666561</v>
       </c>
       <c r="K7" t="n">
-        <v>343.6046302520008</v>
+        <v>325.8674394178012</v>
       </c>
       <c r="L7" t="n">
-        <v>761.8145120199619</v>
+        <v>744.0773211857622</v>
       </c>
       <c r="M7" t="n">
-        <v>761.8145120199619</v>
+        <v>1203.561188366675</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1645.81999152432</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2065.489240750101</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.996134720443</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.44924233328</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2534.031421038652</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2374.790052336649</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2128.910605915104</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>2128.910605915104</v>
       </c>
       <c r="V7" t="n">
-        <v>744.789056624877</v>
+        <v>1841.955097785534</v>
       </c>
       <c r="W7" t="n">
-        <v>744.789056624877</v>
+        <v>1794.797189530013</v>
       </c>
       <c r="X7" t="n">
-        <v>744.789056624877</v>
+        <v>1549.405434863426</v>
       </c>
       <c r="Y7" t="n">
-        <v>744.789056624877</v>
+        <v>1321.985764177534</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1354.685418428195</v>
+        <v>981.4316298953097</v>
       </c>
       <c r="C8" t="n">
-        <v>939.7051465176778</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D8" t="n">
-        <v>503.7953616921222</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E8" t="n">
-        <v>474.0610208908215</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>46.1935913000292</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>46.1935913000292</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>46.1935913000292</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>45.7768019271692</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>45.7768019271692</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>612.264725775888</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1178.752649624607</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1178.752649624607</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1178.752649624607</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1745.240573473326</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2288.84009635846</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2288.84009635846</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2288.84009635846</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2205.188222542297</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2205.188222542297</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2205.188222542297</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>2205.188222542297</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>2204.373171993734</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X8" t="n">
-        <v>2189.271112613449</v>
+        <v>1542.343807478647</v>
       </c>
       <c r="Y8" t="n">
-        <v>1780.984988913102</v>
+        <v>1407.731200380218</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>551.9485469184619</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>445.4920857551043</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>350.4017969016575</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>256.2813822286112</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>172.8975438447728</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>87.51245411095672</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>45.7768019271692</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>71.8404750876268</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>396.3988000538391</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>962.8867239025579</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1051.104846679563</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1051.104846679563</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1051.104846679563</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1051.104846679563</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1051.104846679563</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1591.843785311638</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1709.016563405978</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1645.561125854361</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1515.382482184963</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1339.045935184931</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1139.92841724693</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>954.6056629801244</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>799.7382272190043</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>673.2524479982251</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>958.9569697405733</v>
+        <v>990.3147246321321</v>
       </c>
       <c r="C10" t="n">
-        <v>786.3952582237982</v>
+        <v>817.753013115357</v>
       </c>
       <c r="D10" t="n">
-        <v>786.3952582237982</v>
+        <v>651.8750203168797</v>
       </c>
       <c r="E10" t="n">
-        <v>616.6372544745354</v>
+        <v>482.117016567617</v>
       </c>
       <c r="F10" t="n">
-        <v>439.9302004362917</v>
+        <v>305.4099625293732</v>
       </c>
       <c r="G10" t="n">
-        <v>274.3389254621193</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>134.4367511524939</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>45.7768019271692</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>45.7768019271692</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>320.5352564983048</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>738.7451382662658</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>911.2123751403595</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1353.471178298004</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1773.140427523786</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2120.647321494127</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2288.84009635846</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2267.422275063832</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2108.180906361828</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>1862.301459940284</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1583.868459193389</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1296.912951063819</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W10" t="n">
-        <v>1296.912951063819</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1150.77558845956</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y10" t="n">
-        <v>1150.77558845956</v>
+        <v>1182.133343351119</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1186.944604721029</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1186.944604721029</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1186.944604721029</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1186.944604721029</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>759.077175130237</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>357.6793437535009</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>68.54918919671717</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>68.13239982385717</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>68.13239982385717</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>68.13239982385717</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L11" t="n">
-        <v>877.2046477321614</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M11" t="n">
-        <v>1720.343095552394</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N11" t="n">
-        <v>2563.481543372626</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O11" t="n">
-        <v>3406.619991192858</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P11" t="n">
-        <v>3406.619991192858</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q11" t="n">
-        <v>3406.619991192858</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R11" t="n">
-        <v>3406.619991192858</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3322.968117376695</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3322.968117376695</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3063.745814693712</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>2701.128864627539</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2440.672762326973</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2021.530298906284</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1613.244175205937</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>574.3041448151499</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>467.8476836517922</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>372.7573947983455</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>278.6369801252992</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>195.2531417414608</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>109.8680520076447</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>68.13239982385717</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>94.19607298431478</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>418.7543979505271</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>418.7543979505271</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>418.7543979505271</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>418.7543979505271</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>418.7543979505271</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1073.460444576251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1073.460444576251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.199383208326</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1731.372161302666</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1667.916723751049</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1537.738080081651</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1361.401533081619</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1162.284015143618</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>976.9612608768123</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0938251156923</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>695.6080458949131</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>777.6262372414689</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C13" t="n">
-        <v>605.0645257246938</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D13" t="n">
-        <v>439.1865329262165</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E13" t="n">
-        <v>269.4285291769538</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>269.4285291769538</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>208.0345741334826</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>68.13239982385717</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>68.13239982385717</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>154.712084988547</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>429.4705395596826</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>847.6804213276437</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1307.164288508557</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1749.423091666201</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2169.092340891983</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2516.599234862325</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2684.792009726657</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2684.792009726657</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2525.550641024653</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2279.671194603108</v>
+        <v>2316.042113248783</v>
       </c>
       <c r="U13" t="n">
-        <v>2001.238193856213</v>
+        <v>2037.609112501888</v>
       </c>
       <c r="V13" t="n">
-        <v>1714.282685726644</v>
+        <v>1750.653604372319</v>
       </c>
       <c r="W13" t="n">
-        <v>1442.256281312935</v>
+        <v>1478.62719995861</v>
       </c>
       <c r="X13" t="n">
-        <v>1196.864526646348</v>
+        <v>1233.235445292023</v>
       </c>
       <c r="Y13" t="n">
-        <v>969.4448559604559</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
         <v>793.2056155771595</v>
@@ -5273,46 +5273,46 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1431.851786213078</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
@@ -5321,7 +5321,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5346,10 +5346,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
         <v>128.3245134312372</v>
@@ -5358,16 +5358,16 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
         <v>1107.588885023173</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1083.7810821021</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>920.0973401405613</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D16" t="n">
-        <v>754.219347342084</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E16" t="n">
-        <v>584.4613435928213</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545776</v>
+        <v>296.6079193348953</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>131.016644360723</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5470,16 +5470,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1748.411126173567</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1503.019371506979</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1275.599700821087</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5516,31 +5516,31 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157614</v>
       </c>
       <c r="L17" t="n">
-        <v>2114.610344180331</v>
+        <v>1680.929463568621</v>
       </c>
       <c r="M17" t="n">
-        <v>3271.658179390882</v>
+        <v>2837.977298779172</v>
       </c>
       <c r="N17" t="n">
-        <v>4397.38916282733</v>
+        <v>3963.708282215619</v>
       </c>
       <c r="O17" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
         <v>4809.322912595856</v>
@@ -5552,7 +5552,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
@@ -5595,19 +5595,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>927.0677766831641</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>754.506065166389</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>588.6280723679117</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>418.8700686186489</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>242.1630145804051</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2674.992180466348</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2429.112734044803</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2150.679733297909</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1863.724225168339</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1591.697820754631</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1346.306066088043</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="Y19" t="n">
-        <v>1118.886395402151</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,19 +5753,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
@@ -5832,22 +5832,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2117.975449367836</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954128</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>628.6763311243571</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>451.9692770861134</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>286.378002111941</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>146.4758278023156</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2425.39087720671</v>
+        <v>2463.487585792272</v>
       </c>
       <c r="C32" t="n">
-        <v>2003.64811180301</v>
+        <v>2041.744820388571</v>
       </c>
       <c r="D32" t="n">
-        <v>1584.13803439033</v>
+        <v>1622.234742975892</v>
       </c>
       <c r="E32" t="n">
-        <v>1166.762996961501</v>
+        <v>1188.459998134187</v>
       </c>
       <c r="F32" t="n">
-        <v>755.2952747835852</v>
+        <v>760.5925685433945</v>
       </c>
       <c r="G32" t="n">
-        <v>370.2971508197255</v>
+        <v>372.6990557327243</v>
       </c>
       <c r="H32" t="n">
-        <v>97.56670367581785</v>
+        <v>99.96860858881668</v>
       </c>
       <c r="I32" t="n">
-        <v>97.56670367581785</v>
+        <v>99.96860858881668</v>
       </c>
       <c r="J32" t="n">
-        <v>532.8213911287357</v>
+        <v>535.2232960417346</v>
       </c>
       <c r="K32" t="n">
-        <v>532.8213911287357</v>
+        <v>1369.573587999912</v>
       </c>
       <c r="L32" t="n">
-        <v>1607.881357381595</v>
+        <v>2444.633554252772</v>
       </c>
       <c r="M32" t="n">
-        <v>2764.929192592146</v>
+        <v>3601.681389463323</v>
       </c>
       <c r="N32" t="n">
-        <v>3890.660176028593</v>
+        <v>3849.096698117471</v>
       </c>
       <c r="O32" t="n">
-        <v>4870.8398425989</v>
+        <v>4829.276364687777</v>
       </c>
       <c r="P32" t="n">
-        <v>4870.8398425989</v>
+        <v>4829.276364687777</v>
       </c>
       <c r="Q32" t="n">
-        <v>4870.8398425989</v>
+        <v>4829.276364687777</v>
       </c>
       <c r="R32" t="n">
-        <v>4878.335183790892</v>
+        <v>4998.430429440834</v>
       </c>
       <c r="S32" t="n">
-        <v>4811.083017387606</v>
+        <v>4931.178263037547</v>
       </c>
       <c r="T32" t="n">
-        <v>4607.41549767352</v>
+        <v>4711.111035910586</v>
       </c>
       <c r="U32" t="n">
-        <v>4364.592902403413</v>
+        <v>4451.888733227603</v>
       </c>
       <c r="V32" t="n">
-        <v>4018.375659750116</v>
+        <v>4105.671490574306</v>
       </c>
       <c r="W32" t="n">
-        <v>3629.919912574025</v>
+        <v>3700.816035985339</v>
       </c>
       <c r="X32" t="n">
-        <v>3227.177156566212</v>
+        <v>3281.67357256465</v>
       </c>
       <c r="Y32" t="n">
-        <v>2835.290740278741</v>
+        <v>2889.787156277179</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>603.7384486671107</v>
+        <v>606.1403535801095</v>
       </c>
       <c r="C33" t="n">
-        <v>497.2819875037529</v>
+        <v>499.6838924167517</v>
       </c>
       <c r="D33" t="n">
-        <v>402.1916986503062</v>
+        <v>404.593603563305</v>
       </c>
       <c r="E33" t="n">
-        <v>308.0712839772599</v>
+        <v>310.4731888902587</v>
       </c>
       <c r="F33" t="n">
-        <v>224.6874455934215</v>
+        <v>227.0893505064203</v>
       </c>
       <c r="G33" t="n">
-        <v>139.3023558596054</v>
+        <v>141.7042607726042</v>
       </c>
       <c r="H33" t="n">
-        <v>97.56670367581785</v>
+        <v>99.96860858881668</v>
       </c>
       <c r="I33" t="n">
-        <v>123.6303768362754</v>
+        <v>126.0322817492743</v>
       </c>
       <c r="J33" t="n">
-        <v>123.6303768362754</v>
+        <v>450.5906067154866</v>
       </c>
       <c r="K33" t="n">
-        <v>123.6303768362754</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="L33" t="n">
-        <v>123.6303768362754</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="M33" t="n">
-        <v>123.6303768362754</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="N33" t="n">
-        <v>1331.018334824521</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="O33" t="n">
-        <v>1643.633687060287</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="P33" t="n">
-        <v>1643.633687060287</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="Q33" t="n">
-        <v>1643.633687060287</v>
+        <v>1646.035591973286</v>
       </c>
       <c r="R33" t="n">
-        <v>1760.806465154627</v>
+        <v>1763.208370067626</v>
       </c>
       <c r="S33" t="n">
-        <v>1697.35102760301</v>
+        <v>1699.752932516009</v>
       </c>
       <c r="T33" t="n">
-        <v>1567.172383933611</v>
+        <v>1569.57428884661</v>
       </c>
       <c r="U33" t="n">
-        <v>1390.83583693358</v>
+        <v>1393.237741846579</v>
       </c>
       <c r="V33" t="n">
-        <v>1191.718318995579</v>
+        <v>1194.120223908578</v>
       </c>
       <c r="W33" t="n">
-        <v>1006.395564728773</v>
+        <v>1008.797469641772</v>
       </c>
       <c r="X33" t="n">
-        <v>851.5281289676531</v>
+        <v>853.9300338806519</v>
       </c>
       <c r="Y33" t="n">
-        <v>725.0423497468738</v>
+        <v>727.4442546598726</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1061.826912397566</v>
+        <v>1064.228817310564</v>
       </c>
       <c r="C34" t="n">
-        <v>905.6649082936671</v>
+        <v>908.0668132066655</v>
       </c>
       <c r="D34" t="n">
-        <v>756.1866229080659</v>
+        <v>758.5885278210644</v>
       </c>
       <c r="E34" t="n">
-        <v>602.8283265716793</v>
+        <v>605.2302314846778</v>
       </c>
       <c r="F34" t="n">
-        <v>442.5209799463116</v>
+        <v>444.9228848593102</v>
       </c>
       <c r="G34" t="n">
-        <v>293.3294123850155</v>
+        <v>295.7313172980139</v>
       </c>
       <c r="H34" t="n">
-        <v>169.8269454882661</v>
+        <v>172.2288504012652</v>
       </c>
       <c r="I34" t="n">
-        <v>97.56670367581785</v>
+        <v>99.96860858881668</v>
       </c>
       <c r="J34" t="n">
-        <v>200.2197420758676</v>
+        <v>202.6216469888664</v>
       </c>
       <c r="K34" t="n">
-        <v>491.0515498823631</v>
+        <v>493.4534547953619</v>
       </c>
       <c r="L34" t="n">
-        <v>925.334784885684</v>
+        <v>927.7366897986828</v>
       </c>
       <c r="M34" t="n">
-        <v>1400.892005301957</v>
+        <v>1403.293910214956</v>
       </c>
       <c r="N34" t="n">
-        <v>1859.224161694961</v>
+        <v>1861.62606660796</v>
       </c>
       <c r="O34" t="n">
-        <v>2294.966764156103</v>
+        <v>2297.368669069102</v>
       </c>
       <c r="P34" t="n">
-        <v>2658.547011361804</v>
+        <v>2660.948916274803</v>
       </c>
       <c r="Q34" t="n">
-        <v>2842.813139461496</v>
+        <v>2845.215044374495</v>
       </c>
       <c r="R34" t="n">
-        <v>2837.795025579744</v>
+        <v>2840.196930492743</v>
       </c>
       <c r="S34" t="n">
-        <v>2694.953364290617</v>
+        <v>2697.355269203616</v>
       </c>
       <c r="T34" t="n">
-        <v>2465.473625281948</v>
+        <v>2467.875530194947</v>
       </c>
       <c r="U34" t="n">
-        <v>2203.44033194793</v>
+        <v>2205.842236860928</v>
       </c>
       <c r="V34" t="n">
-        <v>1932.884531231236</v>
+        <v>1935.286436144235</v>
       </c>
       <c r="W34" t="n">
-        <v>1677.257834230404</v>
+        <v>1679.659739143402</v>
       </c>
       <c r="X34" t="n">
-        <v>1448.265786976693</v>
+        <v>1450.667691889691</v>
       </c>
       <c r="Y34" t="n">
-        <v>1237.245823703677</v>
+        <v>1239.647728616676</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C35" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G35" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J35" t="n">
         <v>532.8213911287357</v>
@@ -6950,37 +6950,37 @@
         <v>3890.660176028593</v>
       </c>
       <c r="O35" t="n">
-        <v>4870.8398425989</v>
+        <v>3890.660176028593</v>
       </c>
       <c r="P35" t="n">
-        <v>4870.8398425989</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q35" t="n">
-        <v>4870.8398425989</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V35" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="36">
@@ -7008,13 +7008,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I36" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J36" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K36" t="n">
         <v>1102.894748428211</v>
@@ -7072,25 +7072,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080659</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716793</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463116</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850154</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J37" t="n">
         <v>200.2197420758676</v>
@@ -7111,10 +7111,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R37" t="n">
         <v>2837.795025579745</v>
@@ -7175,25 +7175,25 @@
         <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>532.8213911287357</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>1607.881357381595</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>2764.929192592146</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>3890.660176028593</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>4870.8398425989</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4870.8398425989</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4870.8398425989</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
         <v>4878.335183790891</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397565</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.664908293666</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080651</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716793</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463117</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882662</v>
+        <v>169.8269454882658</v>
       </c>
       <c r="I40" t="n">
         <v>97.56670367581783</v>
@@ -7348,16 +7348,16 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
         <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290616</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
         <v>2465.473625281948</v>
@@ -7366,16 +7366,16 @@
         <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231235</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230403</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
         <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703676</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7391,22 +7391,22 @@
         <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7418,40 +7418,40 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>2523.346856428596</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>2523.346856428596</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>3503.526522998903</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P41" t="n">
-        <v>4331.836397832299</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4878.335183790893</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
         <v>2835.290740278742</v>
@@ -7482,13 +7482,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
-        <v>97.60290339162182</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>422.1612283578341</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K42" t="n">
         <v>1102.894748428211</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936676</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080664</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716798</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463121</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G43" t="n">
         <v>293.3294123850158</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823634</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856844</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694962</v>
       </c>
       <c r="O43" t="n">
         <v>2294.966764156103</v>
@@ -7597,13 +7597,13 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
         <v>1677.257834230404</v>
@@ -7628,22 +7628,22 @@
         <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7655,22 +7655,22 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>2523.346856428595</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2523.346856428595</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>3503.526522998902</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4331.836397832298</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4878.335183790892</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
         <v>4811.083017387605</v>
@@ -7691,7 +7691,7 @@
         <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7719,13 +7719,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
         <v>1102.894748428211</v>
@@ -7783,25 +7783,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716794</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H46" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7834,7 +7834,7 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
         <v>2203.44033194793</v>
@@ -7982,19 +7982,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>638.8623105833202</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>89.37913572431466</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,13 +8231,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>638.8623105833201</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>22.45692843256239</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>638.8623105833201</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,10 +8380,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>143.8920278917549</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>572.210024089615</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>572.210024089615</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>572.210024089615</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>549.0904271567013</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>572.210024089615</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>89.10921492626744</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8617,7 +8617,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>174.2093301758522</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8690,19 +8690,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L11" t="n">
-        <v>817.244694856873</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>851.6549977982146</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>851.6549977982145</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>851.6549977982145</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8930,10 +8930,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>60.59188538505282</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9164,10 +9164,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935742</v>
       </c>
       <c r="L17" t="n">
-        <v>750.2469944428849</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9176,13 +9176,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9401,22 +9401,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10349,7 +10349,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10358,7 +10358,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>249.9144531860084</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>7.571051709083804</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,16 +10437,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1219.583795947723</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>315.7730830664302</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10598,16 +10598,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>274.7698556067157</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>7.571051709082894</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10823,28 +10823,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>7.571051709082894</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>81.9345526149732</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03656536949895894</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>81.93455261497229</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>36.63194236194698</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,10 +22604,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>142.9553587655168</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>103.1553467313942</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2.220053416764415</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>8.789189859683717</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>110.0349065174853</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>114.1599680048247</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>122.9308428424051</v>
       </c>
     </row>
     <row r="20">
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>44.00051207685084</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627262</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>4.209965709378594e-13</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>5.826450433232822e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>860549.6890003312</v>
+        <v>659579.9682726543</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>860549.6890003312</v>
+        <v>875952.8728312621</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>871168.0734977337</v>
+        <v>878009.7918810655</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>673029.8542126289</v>
+        <v>897529.9280674327</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>897529.9280674325</v>
+        <v>897529.9280674327</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>897529.9280674325</v>
+        <v>897529.9280674327</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>897529.9280674326</v>
+        <v>897529.9280674325</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>908460.3338629412</v>
+        <v>910116.3623846237</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>120633.1469753419</v>
+        <v>90981.87670404537</v>
       </c>
       <c r="C2" t="n">
         <v>120633.1469753419</v>
@@ -26320,16 +26320,16 @@
         <v>120633.1469753419</v>
       </c>
       <c r="E2" t="n">
-        <v>88891.68615960774</v>
+        <v>118542.9564309043</v>
       </c>
       <c r="F2" t="n">
-        <v>118542.9564309042</v>
+        <v>118542.9564309043</v>
       </c>
       <c r="G2" t="n">
-        <v>118542.9564309042</v>
+        <v>118542.9564309043</v>
       </c>
       <c r="H2" t="n">
-        <v>118542.9564309042</v>
+        <v>118542.9564309043</v>
       </c>
       <c r="I2" t="n">
         <v>118542.9564309043</v>
@@ -26338,7 +26338,7 @@
         <v>118542.9564309043</v>
       </c>
       <c r="K2" t="n">
-        <v>118542.9564309042</v>
+        <v>118542.9564309043</v>
       </c>
       <c r="L2" t="n">
         <v>120633.1469753418</v>
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>69320.13118371993</v>
       </c>
       <c r="D3" t="n">
-        <v>45946.57756148708</v>
+        <v>8900.449092101877</v>
       </c>
       <c r="E3" t="n">
-        <v>83436.12135996627</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>122233.5690936864</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>55222.53889197372</v>
       </c>
       <c r="L3" t="n">
-        <v>35573.76604029854</v>
+        <v>12988.5682709979</v>
       </c>
       <c r="M3" t="n">
-        <v>69638.80522807782</v>
+        <v>144718.1170387507</v>
       </c>
       <c r="N3" t="n">
-        <v>104487.2066667923</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212093.1194372179</v>
+        <v>136875.4802388637</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.119437218</v>
+        <v>178390.1777075792</v>
       </c>
       <c r="D4" t="n">
-        <v>188859.5595507078</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>71146.4027805361</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="F4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="G4" t="n">
         <v>94878.44464875289</v>
@@ -26439,13 +26439,13 @@
         <v>94878.44464875289</v>
       </c>
       <c r="J4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
-        <v>107302.2988178705</v>
+        <v>103678.8250359888</v>
       </c>
       <c r="M4" t="n">
         <v>107302.2988178705</v>
@@ -26457,7 +26457,7 @@
         <v>107302.2988178706</v>
       </c>
       <c r="P4" t="n">
-        <v>107302.2988178706</v>
+        <v>107302.2988178705</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72470.42848346586</v>
       </c>
       <c r="D5" t="n">
-        <v>68417.96946464859</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>51780.62386613144</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26494,22 +26494,22 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
+        <v>77341.06245996883</v>
+      </c>
+      <c r="M5" t="n">
         <v>75515.61472608971</v>
-      </c>
-      <c r="M5" t="n">
-        <v>75515.6147260897</v>
       </c>
       <c r="N5" t="n">
         <v>75515.6147260897</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-293076.0612588082</v>
+        <v>-247839.1508903206</v>
       </c>
       <c r="C6" t="n">
-        <v>-150884.7605990984</v>
+        <v>-199547.5903994231</v>
       </c>
       <c r="D6" t="n">
-        <v>-182590.9596015016</v>
+        <v>-136369.3619449607</v>
       </c>
       <c r="E6" t="n">
-        <v>-117471.4618470261</v>
+        <v>-236432.0603840736</v>
       </c>
       <c r="F6" t="n">
-        <v>-176287.2959173276</v>
+        <v>-54076.95116302376</v>
       </c>
       <c r="G6" t="n">
-        <v>-54053.72682364103</v>
+        <v>-54076.95116302379</v>
       </c>
       <c r="H6" t="n">
-        <v>-54053.72682364113</v>
+        <v>-54076.95116302379</v>
       </c>
       <c r="I6" t="n">
-        <v>-54053.72682364115</v>
+        <v>-54076.95116302379</v>
       </c>
       <c r="J6" t="n">
-        <v>-165068.1921686313</v>
+        <v>-165091.416508014</v>
       </c>
       <c r="K6" t="n">
-        <v>-54053.72682364113</v>
+        <v>-109299.4900549975</v>
       </c>
       <c r="L6" t="n">
-        <v>-97758.53260891697</v>
+        <v>-73375.30879161367</v>
       </c>
       <c r="M6" t="n">
-        <v>-131823.5717966962</v>
+        <v>-206902.8836073691</v>
       </c>
       <c r="N6" t="n">
-        <v>-166671.9732354107</v>
+        <v>-62184.76656861843</v>
       </c>
       <c r="O6" t="n">
-        <v>-62184.76656861849</v>
+        <v>-62184.76656861843</v>
       </c>
       <c r="P6" t="n">
-        <v>-62184.76656861846</v>
+        <v>-62184.76656861842</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M2" t="n">
         <v>16.23571033874737</v>
@@ -26725,7 +26725,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="3">
@@ -26790,16 +26790,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>638.8623105833201</v>
       </c>
       <c r="D4" t="n">
-        <v>572.210024089615</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>851.6549977982146</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26817,7 +26817,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="L4" t="n">
-        <v>1219.583795947723</v>
+        <v>1249.607607360208</v>
       </c>
       <c r="M4" t="n">
         <v>1219.583795947723</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>214.5664530632158</v>
       </c>
       <c r="D4" t="n">
-        <v>147.9141665695106</v>
+        <v>28.65289602453684</v>
       </c>
       <c r="E4" t="n">
-        <v>279.4449737085997</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>426.605505586531</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>214.5664530632158</v>
       </c>
       <c r="L4" t="n">
-        <v>89.23745913248854</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>279.4449737085994</v>
+        <v>580.721485364403</v>
       </c>
       <c r="N4" t="n">
-        <v>426.605505586531</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>214.5664530632158</v>
       </c>
       <c r="L4" t="n">
-        <v>147.9141665695106</v>
+        <v>28.65289602453684</v>
       </c>
       <c r="M4" t="n">
-        <v>279.4449737085997</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>426.605505586531</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27436,16 +27436,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>98.71578369541311</v>
+        <v>383.9987170794435</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>71.86831062248446</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>27.46466578298387</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>238.3503985049418</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9.465190568306582</v>
-      </c>
-      <c r="D5" t="n">
-        <v>63.2534899600285</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27682,7 +27682,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>17.93380103902723</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>222.6198111966055</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>22.93057889699924</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27913,13 +27913,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>270.9367814358977</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2.22005341676487</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>98.26184814170534</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D32" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E32" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>16.23571033874735</v>
+        <v>13.36927538040527</v>
       </c>
       <c r="H32" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T32" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W32" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>16.23571033874735</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="35">
@@ -30526,7 +30526,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874765</v>
       </c>
     </row>
     <row r="42">
@@ -30642,7 +30642,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874771</v>
       </c>
       <c r="L43" t="n">
         <v>16.23571033874737</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
   </sheetData>
@@ -34702,19 +34702,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>638.8623105833202</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>89.37913572431466</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,13 +34951,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>638.8623105833201</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>22.45692843256239</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>638.8623105833201</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>143.8920278917549</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>572.210024089615</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>572.210024089615</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>572.210024089615</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>549.0904271567013</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>572.210024089615</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>89.10921492626744</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35337,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>174.2093301758522</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,19 +35410,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L11" t="n">
-        <v>817.244694856873</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>851.6549977982146</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>851.6549977982145</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>851.6549977982145</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>60.59188538505282</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35884,10 +35884,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>69.04441372935742</v>
       </c>
       <c r="L17" t="n">
-        <v>750.2469944428849</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35896,13 +35896,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36121,22 +36121,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37069,7 +37069,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,10 +37078,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>249.9144531860084</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>7.571051709083804</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,16 +37157,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1219.583795947723</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>315.7730830664302</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
@@ -37318,16 +37318,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831382</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>274.7698556067157</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>7.571051709082894</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>7.571051709082894</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>81.9345526149732</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03656536949895894</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>103.689937777828</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>293.7695028348443</v>
       </c>
       <c r="L43" t="n">
         <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>81.93455261497229</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
